--- a/EtherCAT_shield_v1.xlsx
+++ b/EtherCAT_shield_v1.xlsx
@@ -539,10 +539,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>http://www.digikey.jp/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=224032586&amp;uq=636271354049129407</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>多分10kとかでもいい</t>
     <rPh sb="0" eb="2">
       <t>タブン</t>
@@ -594,6 +590,10 @@
     <rPh sb="7" eb="8">
       <t>ホカ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/products/ja?keywords=%09490-5255-1-ND</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -965,7 +965,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1080,6 +1080,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1212,26 +1227,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1579,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78:D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1608,1453 +1635,1563 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>154</v>
       </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>49.9</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>155</v>
       </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>49.9</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>49.9</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>49.9</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>49.9</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>49.9</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>49.9</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>49.9</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>330</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>156</v>
       </c>
+      <c r="E12" s="1"/>
       <c r="F12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>330</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="5"/>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="1"/>
       <c r="F13" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>330</v>
       </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5"/>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="1"/>
       <c r="F14" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>330</v>
       </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5"/>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="1"/>
       <c r="F15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="6" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+      <c r="D41" s="6"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+      <c r="D42" s="6"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+      <c r="D44" s="6"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+      <c r="D45" s="6"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
+      <c r="D46" s="6"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
+      <c r="D47" s="6"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
+      <c r="D49" s="6"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+      <c r="D50" s="6"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+      <c r="D51" s="6"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C54" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
+      <c r="C55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C58" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+      <c r="C58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C59" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C60" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C62" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C64" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="3"/>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C65" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="3"/>
+      <c r="C65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C66" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="3"/>
+      <c r="C66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C67" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="3"/>
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C68" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="3"/>
+      <c r="C68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="D69" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="4"/>
+      <c r="E71" s="1"/>
       <c r="F71" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D72" s="4"/>
+      <c r="E72" s="1"/>
       <c r="F72" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="4"/>
+      <c r="E73" s="1"/>
       <c r="F73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="6" t="s">
         <v>159</v>
       </c>
+      <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="2"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="D77" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3" t="s">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="10"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="10"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="10"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>144</v>
-      </c>
-      <c r="B80" t="s">
-        <v>145</v>
-      </c>
-      <c r="C80" t="s">
-        <v>146</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>42</v>
-      </c>
-      <c r="B81" t="s">
-        <v>43</v>
-      </c>
-      <c r="C81" t="s">
-        <v>44</v>
-      </c>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" t="s">
-        <v>43</v>
-      </c>
-      <c r="C82" t="s">
-        <v>44</v>
-      </c>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>39</v>
-      </c>
-      <c r="B83" t="s">
-        <v>40</v>
-      </c>
-      <c r="C83" t="s">
-        <v>41</v>
-      </c>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84" t="s">
-        <v>40</v>
-      </c>
-      <c r="C84" t="s">
-        <v>41</v>
-      </c>
-      <c r="D84" s="6"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>47</v>
-      </c>
-      <c r="B85" t="s">
-        <v>40</v>
-      </c>
-      <c r="C85" t="s">
-        <v>41</v>
-      </c>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>48</v>
-      </c>
-      <c r="B86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C86" t="s">
-        <v>41</v>
-      </c>
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" t="s">
-        <v>91</v>
-      </c>
-      <c r="C87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>111</v>
-      </c>
-      <c r="B88" t="s">
-        <v>91</v>
-      </c>
-      <c r="C88" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>113</v>
-      </c>
-      <c r="B89" t="s">
-        <v>91</v>
-      </c>
-      <c r="C89" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
-        <v>115</v>
-      </c>
-      <c r="B90" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>31</v>
-      </c>
-      <c r="B91" t="s">
-        <v>32</v>
-      </c>
-      <c r="C91" t="s">
-        <v>33</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
+      <c r="D92" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
+      <c r="D93" s="8"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
+      <c r="D94" s="8"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
+      <c r="D95" s="8"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D96" s="3"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D97" s="3"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D98" s="3"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D99" s="3"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="3"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D101" s="3"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D102" s="3"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D103" s="3"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D104" s="3"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D105" s="3"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D106" s="3"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D107" s="3"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D108" s="3"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D109" s="3"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="4"/>
+      <c r="E110" s="1"/>
       <c r="F110" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D111" s="4"/>
+      <c r="E111" s="1"/>
       <c r="F111" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A113" t="s">
+      <c r="A113" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="1"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="3"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D115">
@@ -3068,18 +3205,18 @@
     <mergeCell ref="D53:D68"/>
     <mergeCell ref="D81:D86"/>
     <mergeCell ref="D87:D90"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="D114:D115"/>
     <mergeCell ref="E114:E115"/>
     <mergeCell ref="D92:D109"/>
     <mergeCell ref="D75:D76"/>
     <mergeCell ref="D78:D79"/>
     <mergeCell ref="E78:E79"/>
+    <mergeCell ref="D40:D47"/>
     <mergeCell ref="D18:D39"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="D4:D11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D40:D47"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <hyperlinks>

--- a/EtherCAT_shield_v1.xlsx
+++ b/EtherCAT_shield_v1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kusakabe\KiCad\projects\EtherCAT_shield_v1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="26955" windowHeight="13245"/>
+    <workbookView xWindow="1410" yWindow="30" windowWidth="26955" windowHeight="13245"/>
   </bookViews>
   <sheets>
     <sheet name="EtherCAT_shield_v1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="181">
   <si>
     <t>Reference</t>
   </si>
@@ -596,11 +601,18 @@
     <t>https://www.digikey.jp/products/ja?keywords=%09490-5255-1-ND</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>部室</t>
+    <rPh sb="0" eb="2">
+      <t>ブシツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -965,7 +977,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1095,6 +1107,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1227,7 +1276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1246,19 +1295,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1313,12 +1380,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1360,7 +1430,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1395,7 +1465,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1606,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78:D79"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1644,7 +1714,7 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>154</v>
       </c>
       <c r="E2" s="1"/>
@@ -1659,7 +1729,7 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1672,7 +1742,7 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E4" s="1"/>
@@ -1687,7 +1757,7 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1700,7 +1770,7 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1713,7 +1783,7 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1726,7 +1796,7 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1739,7 +1809,7 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1752,7 +1822,7 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1765,7 +1835,7 @@
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1778,7 +1848,7 @@
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="10" t="s">
         <v>156</v>
       </c>
       <c r="E12" s="1"/>
@@ -1796,7 +1866,7 @@
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="1"/>
       <c r="F13" t="s">
         <v>163</v>
@@ -1812,7 +1882,7 @@
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1"/>
       <c r="F14" t="s">
         <v>163</v>
@@ -1828,7 +1898,7 @@
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1"/>
       <c r="F15" t="s">
         <v>163</v>
@@ -1844,7 +1914,7 @@
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>157</v>
       </c>
       <c r="E16" s="1"/>
@@ -1859,7 +1929,7 @@
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -1872,7 +1942,7 @@
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="11" t="s">
         <v>158</v>
       </c>
       <c r="E18" s="1"/>
@@ -1887,7 +1957,7 @@
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -1900,7 +1970,7 @@
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -1913,7 +1983,7 @@
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -1926,7 +1996,7 @@
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -1939,7 +2009,7 @@
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -1952,7 +2022,7 @@
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -1965,7 +2035,7 @@
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -1978,7 +2048,7 @@
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -1991,7 +2061,7 @@
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -2004,7 +2074,7 @@
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -2017,7 +2087,7 @@
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -2030,7 +2100,7 @@
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -2043,7 +2113,7 @@
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -2056,7 +2126,7 @@
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -2069,7 +2139,9 @@
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="14" t="s">
+        <v>180</v>
+      </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -2082,7 +2154,7 @@
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -2095,7 +2167,7 @@
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -2108,7 +2180,7 @@
       <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -2121,7 +2193,7 @@
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -2134,7 +2206,7 @@
       <c r="C38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -2147,7 +2219,7 @@
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="16"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -2160,7 +2232,7 @@
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="7" t="s">
         <v>159</v>
       </c>
       <c r="E40" s="1"/>
@@ -2175,7 +2247,7 @@
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -2188,7 +2260,7 @@
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="6"/>
+      <c r="D42" s="7"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -2201,7 +2273,7 @@
       <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="6"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -2214,7 +2286,7 @@
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -2227,7 +2299,7 @@
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -2240,7 +2312,7 @@
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="7"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
@@ -2253,7 +2325,7 @@
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
@@ -2266,7 +2338,7 @@
       <c r="C48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="7" t="s">
         <v>164</v>
       </c>
       <c r="E48" s="1"/>
@@ -2281,7 +2353,7 @@
       <c r="C49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
@@ -2294,7 +2366,7 @@
       <c r="C50" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="6"/>
+      <c r="D50" s="7"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -2307,7 +2379,7 @@
       <c r="C51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="6"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -2335,7 +2407,7 @@
       <c r="C53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="7" t="s">
         <v>166</v>
       </c>
       <c r="E53" s="1"/>
@@ -2642,7 +2714,7 @@
       <c r="C75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="7" t="s">
         <v>159</v>
       </c>
       <c r="E75" s="1"/>
@@ -2657,7 +2729,7 @@
       <c r="C76" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="6"/>
+      <c r="D76" s="7"/>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
@@ -2685,11 +2757,11 @@
       <c r="C78" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="7" t="s">
         <v>177</v>
       </c>
       <c r="E78" s="8"/>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="6" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2705,7 +2777,7 @@
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="9"/>
+      <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
@@ -2732,7 +2804,7 @@
       <c r="C81" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D81" s="10"/>
+      <c r="D81" s="9"/>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
@@ -2745,7 +2817,7 @@
       <c r="C82" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D82" s="10"/>
+      <c r="D82" s="9"/>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
@@ -2758,7 +2830,7 @@
       <c r="C83" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="10"/>
+      <c r="D83" s="9"/>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
@@ -2771,7 +2843,7 @@
       <c r="C84" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D84" s="10"/>
+      <c r="D84" s="9"/>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
@@ -2784,7 +2856,7 @@
       <c r="C85" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D85" s="10"/>
+      <c r="D85" s="9"/>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
@@ -2797,7 +2869,7 @@
       <c r="C86" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D86" s="10"/>
+      <c r="D86" s="9"/>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
@@ -2810,7 +2882,7 @@
       <c r="C87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="7" t="s">
         <v>179</v>
       </c>
       <c r="E87" s="1"/>
@@ -2879,7 +2951,7 @@
       <c r="C92" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="7" t="s">
         <v>170</v>
       </c>
       <c r="E92" s="1"/>
@@ -3173,10 +3245,10 @@
       <c r="C114" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E114" s="7" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3190,7 +3262,7 @@
       <c r="C115" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="6"/>
+      <c r="D115" s="7"/>
       <c r="E115" s="8"/>
     </row>
   </sheetData>
@@ -3199,12 +3271,7 @@
       <sortCondition ref="B1:B115"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="17">
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D53:D68"/>
-    <mergeCell ref="D81:D86"/>
-    <mergeCell ref="D87:D90"/>
+  <mergeCells count="18">
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D114:D115"/>
     <mergeCell ref="E114:E115"/>
@@ -3213,10 +3280,16 @@
     <mergeCell ref="D78:D79"/>
     <mergeCell ref="E78:E79"/>
     <mergeCell ref="D40:D47"/>
-    <mergeCell ref="D18:D39"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="D4:D11"/>
+    <mergeCell ref="D18:D32"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D53:D68"/>
+    <mergeCell ref="D81:D86"/>
+    <mergeCell ref="D87:D90"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <hyperlinks>
@@ -3245,5 +3318,6 @@
     <hyperlink ref="D78" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId24"/>
 </worksheet>
 </file>